--- a/data/trans_camb/P43-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43-Provincia-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>15.66443433824499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23.50034798825757</v>
+        <v>23.50034798825758</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.093658126022731</v>
+        <v>8.606824270365049</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.05679396938532</v>
+        <v>6.812276316374128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.79085328024126</v>
+        <v>15.69593577706506</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.54473312464883</v>
+        <v>25.56352192146745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.44957958958358</v>
+        <v>23.94693499149617</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31.62174566349943</v>
+        <v>31.36995328158505</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.4503434105876921</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6756213875652306</v>
+        <v>0.6756213875652309</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2038835111714537</v>
+        <v>0.2215181191667175</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.174856415534703</v>
+        <v>0.1709439726835503</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3754834060616713</v>
+        <v>0.3954303353027175</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8578251585658712</v>
+        <v>0.8611260155088408</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7783555456202862</v>
+        <v>0.7780249154810697</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.057956686436134</v>
+        <v>1.06259298907221</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>14.6354695974225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.17509897150837</v>
+        <v>17.17509897150838</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.185641229502337</v>
+        <v>-0.4408457558260612</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.573322068708182</v>
+        <v>9.134189729585607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.36735949601903</v>
+        <v>10.93152885755567</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.9933744994729</v>
+        <v>11.44079119726424</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.23899737577815</v>
+        <v>20.22229870678269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.58557520109946</v>
+        <v>23.57707849480052</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.4019785569601632</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4717321473190589</v>
+        <v>0.4717321473190592</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02516168454779268</v>
+        <v>-0.01186194396875632</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.195236048094729</v>
+        <v>0.2315580629865423</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2908107107516968</v>
+        <v>0.2698090057108686</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3269526496105766</v>
+        <v>0.3463432792838504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5941139023671008</v>
+        <v>0.6065277411752155</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7168494299673458</v>
+        <v>0.7108512506968585</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.361409806335968</v>
+        <v>-1.337041840798225</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.278345668334502</v>
+        <v>8.555402309336051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.169913409376621</v>
+        <v>5.260597070482883</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.20908339512184</v>
+        <v>13.32091540967716</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.33864220331499</v>
+        <v>23.75082244572614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.5974069314</v>
+        <v>19.88718086130601</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02868104532531647</v>
+        <v>-0.02876280087624344</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1850191967629779</v>
+        <v>0.1904029842509353</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1379397213112408</v>
+        <v>0.1192211223292804</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3950682313219041</v>
+        <v>0.3556165556665912</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6275063754695912</v>
+        <v>0.6406880539870515</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.573169481425058</v>
+        <v>0.5353735723056219</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>11.61167755486149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.6579038397377</v>
+        <v>10.65790383973771</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.06851259425666126</v>
+        <v>0.04849613732583572</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.263775258266229</v>
+        <v>3.538123928203151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.230084173841957</v>
+        <v>3.160414998774817</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.75055687035822</v>
+        <v>13.63848804226289</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.95526845104633</v>
+        <v>18.31318218590651</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.43791129369846</v>
+        <v>19.16271113728778</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.2816705918214083</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2585343993519449</v>
+        <v>0.2585343993519452</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.00212156663911238</v>
+        <v>-0.00174970964345361</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.08112596276462479</v>
+        <v>0.09379191911412686</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07037894090317588</v>
+        <v>0.06935222006530156</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3658556181236715</v>
+        <v>0.3632057344819447</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4689890781093877</v>
+        <v>0.4929892440906529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4770837011815227</v>
+        <v>0.5037209161870256</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.669678916462367</v>
+        <v>8.374234127977449</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>13.55641580823927</v>
+        <v>13.46738643497174</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31.65040798414942</v>
+        <v>31.661047252283</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>26.80417269580033</v>
+        <v>27.17593234603446</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>32.53127360231296</v>
+        <v>32.43082867471133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49.37778035259762</v>
+        <v>49.21353223341223</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2549594152427656</v>
+        <v>0.241872483012113</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3708025546160912</v>
+        <v>0.3578308533200333</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8818649652270065</v>
+        <v>0.892653167587135</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.073175996145591</v>
+        <v>1.111166120007181</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.327161577795826</v>
+        <v>1.293745317155188</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.997822779588654</v>
+        <v>2.016437258678028</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.450674519132081</v>
+        <v>1.134717045220522</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.826028620562111</v>
+        <v>3.429940071873223</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.079995618871811</v>
+        <v>7.56505347429738</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.06097227515986</v>
+        <v>17.82406880171547</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>19.75537007539002</v>
+        <v>19.5963293671722</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23.44733840931576</v>
+        <v>23.52714723502956</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.03252106007490111</v>
+        <v>0.03818550154285127</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06818284983239126</v>
+        <v>0.07698493880736845</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1734121242887912</v>
+        <v>0.1790097604449397</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5417129797981795</v>
+        <v>0.5320122526847413</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.575025128172535</v>
+        <v>0.5701661083088716</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7035032685525147</v>
+        <v>0.6903121339615089</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.188471917056368</v>
+        <v>1.52368394793857</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.891762823126285</v>
+        <v>-6.648130757202056</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11.05208178727947</v>
+        <v>11.93750775316908</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.73767736837306</v>
+        <v>13.34955513955136</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.331695557566193</v>
+        <v>4.310707035264962</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22.86386087379482</v>
+        <v>23.29236106429208</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02168894845969839</v>
+        <v>0.03061163224495051</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1488490226532418</v>
+        <v>-0.144272531660634</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2323613964207868</v>
+        <v>0.2526850717103361</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3114479626225627</v>
+        <v>0.3253853984089266</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1042274810886746</v>
+        <v>0.1075800228130994</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5586852414660493</v>
+        <v>0.5791564353362523</v>
       </c>
     </row>
     <row r="46">
@@ -1332,7 +1332,7 @@
         <v>16.11656457133704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.787848587073816</v>
+        <v>2.787848587073827</v>
       </c>
     </row>
     <row r="47">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.018198854410015</v>
+        <v>5.414044842160711</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>11.0077733352594</v>
+        <v>11.16879361943438</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.114733872401379</v>
+        <v>-2.283657432800044</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>15.10284560289527</v>
+        <v>15.07677462661103</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>20.84074892172759</v>
+        <v>21.10933386763039</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.624364426382336</v>
+        <v>7.332222120255048</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
         <v>0.4688530747879662</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.08110235753452565</v>
+        <v>0.08110235753452598</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1367788546492371</v>
+        <v>0.1415880255257265</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.3016881446448687</v>
+        <v>0.3064524111376525</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05553043734693881</v>
+        <v>-0.06204849776707472</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4742680221237837</v>
+        <v>0.4717262948782807</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6573425191139225</v>
+        <v>0.667536949371348</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2326395462472036</v>
+        <v>0.2364153248532661</v>
       </c>
     </row>
     <row r="52">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.794035992062673</v>
+        <v>6.817150208387714</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>9.602261304064607</v>
+        <v>9.589216384432344</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>12.12774062853585</v>
+        <v>11.98869196629258</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>11.65997302507998</v>
+        <v>11.58701693193305</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>14.20891781134076</v>
+        <v>14.59463006539581</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>16.63908890600208</v>
+        <v>16.58381429699191</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1731737581209441</v>
+        <v>0.173447282599849</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.246094259188379</v>
+        <v>0.2447904242168622</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.312141021333935</v>
+        <v>0.30643912355013</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3165392037572519</v>
+        <v>0.3132568775361239</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3827285205123372</v>
+        <v>0.3973115690559105</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4559335596789152</v>
+        <v>0.4511211911135145</v>
       </c>
     </row>
     <row r="58">
